--- a/data/dataPaper-I-in/arphified/Mollusca.xlsx
+++ b/data/dataPaper-I-in/arphified/Mollusca.xlsx
@@ -3588,76 +3588,76 @@
     <t>${catalogNumber}</t>
   </si>
   <si>
+    <t>${recordedBy}</t>
+  </si>
+  <si>
+    <t>${individualCount}</t>
+  </si>
+  <si>
+    <t>${sex}</t>
+  </si>
+  <si>
+    <t>PRESENT</t>
+  </si>
+  <si>
+    <t>${taxonName}</t>
+  </si>
+  <si>
+    <t>!references.ref</t>
+  </si>
+  <si>
+    <t>iNaturalist:${iNaturalistTaxonId}</t>
+  </si>
+  <si>
+    <t>${scientificName}</t>
+  </si>
+  <si>
+    <t>${kingdom}</t>
+  </si>
+  <si>
+    <t>${phylum}</t>
+  </si>
+  <si>
+    <t>${class}</t>
+  </si>
+  <si>
+    <t>${order}</t>
+  </si>
+  <si>
+    <t>${family}</t>
+  </si>
+  <si>
+    <t>${genus}</t>
+  </si>
+  <si>
+    <t>${subgenus}</t>
+  </si>
+  <si>
+    <t>Galiano Island</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>${locality}</t>
+  </si>
+  <si>
+    <t>${depth}</t>
+  </si>
+  <si>
+    <t>${latitude}</t>
+  </si>
+  <si>
+    <t>${longitude}</t>
+  </si>
+  <si>
     <t>Confidence: ${confidence}</t>
-  </si>
-  <si>
-    <t>${recordedBy}</t>
-  </si>
-  <si>
-    <t>${individualCount}</t>
-  </si>
-  <si>
-    <t>${sex}</t>
-  </si>
-  <si>
-    <t>PRESENT</t>
-  </si>
-  <si>
-    <t>${taxonName}</t>
-  </si>
-  <si>
-    <t>!references.ref</t>
-  </si>
-  <si>
-    <t>iNaturalist:${iNaturalistTaxonId}</t>
-  </si>
-  <si>
-    <t>${scientificName}</t>
-  </si>
-  <si>
-    <t>${kingdom}</t>
-  </si>
-  <si>
-    <t>${phylum}</t>
-  </si>
-  <si>
-    <t>${class}</t>
-  </si>
-  <si>
-    <t>${order}</t>
-  </si>
-  <si>
-    <t>${family}</t>
-  </si>
-  <si>
-    <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
-  </si>
-  <si>
-    <t>Galiano Island</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>British Columbia</t>
-  </si>
-  <si>
-    <t>${locality}</t>
-  </si>
-  <si>
-    <t>${depth}</t>
-  </si>
-  <si>
-    <t>${latitude}</t>
-  </si>
-  <si>
-    <t>${longitude}</t>
   </si>
   <si>
     <t>!references.samplingProtocol</t>
@@ -27044,301 +27044,301 @@
         <v>36</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
         <v>1191</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>1192</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1193</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
         <v>1194</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
         <v>1195</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
         <v>1196</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" t="s">
         <v>1197</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="s">
         <v>1198</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN2" t="s">
         <v>1199</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>1200</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>1201</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>1202</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>1203</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>1204</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>1205</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK2" t="s">
         <v>1206</v>
       </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>1207</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>1208</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>1209</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>1210</v>
       </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
         <v>1211</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH2" t="s">
         <v>1212</v>
       </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>1213</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>1214</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -27461,7 +27461,7 @@
         <v>36</v>
       </c>
       <c r="EO2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="EP2" t="s">
         <v>36</v>

--- a/data/dataPaper-I-in/arphified/Mollusca.xlsx
+++ b/data/dataPaper-I-in/arphified/Mollusca.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7664" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7664" uniqueCount="1230">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -3655,6 +3655,9 @@
   </si>
   <si>
     <t>${longitude}</t>
+  </si>
+  <si>
+    <t>${coordinateUncertaintyInMeters}</t>
   </si>
   <si>
     <t>Confidence: ${confidence}</t>
@@ -27293,7 +27296,7 @@
         <v>36</v>
       </c>
       <c r="CK2" t="s">
-        <v>36</v>
+        <v>1214</v>
       </c>
       <c r="CL2" t="s">
         <v>36</v>
@@ -27338,7 +27341,7 @@
         <v>36</v>
       </c>
       <c r="CZ2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="DA2" t="s">
         <v>36</v>
@@ -27401,13 +27404,13 @@
         <v>36</v>
       </c>
       <c r="DU2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="DV2" t="s">
         <v>36</v>
       </c>
       <c r="DW2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="DX2" t="s">
         <v>36</v>
@@ -27419,13 +27422,13 @@
         <v>36</v>
       </c>
       <c r="EA2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="EB2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="EC2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="ED2" t="s">
         <v>36</v>
@@ -27434,13 +27437,13 @@
         <v>36</v>
       </c>
       <c r="EF2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="EG2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="EH2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="EI2" t="s">
         <v>36</v>
@@ -27473,19 +27476,19 @@
         <v>36</v>
       </c>
       <c r="ES2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="ET2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="EU2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="EV2" t="s">
         <v>36</v>
       </c>
       <c r="EW2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="EX2" t="s">
         <v>36</v>
@@ -27516,10 +27519,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Mollusca.xlsx
+++ b/data/dataPaper-I-in/arphified/Mollusca.xlsx
@@ -165,7 +165,7 @@
     <t>(Gould, 1850)</t>
   </si>
   <si>
-    <t>Accessioned in collections at the RBCM as Lyonsia californica (RBCM 979-03305). The original ID by Ian McTaggart-Cowan is Lyonsia pugetensis which is now accepted as Lyonsia bracteata.</t>
+    <t>Accessioned in collections at the RBCM as Lyonsia californica (RBCM 979-03305). The original ID by Ian McTaggart-Cowan is Lyonsia pugetensis which is now accepted as Lyonsia bracteata (WoRMS Editorial Board 2021​​​​​​​).</t>
   </si>
   <si>
     <t>873896</t>

--- a/data/dataPaper-I-in/arphified/Mollusca.xlsx
+++ b/data/dataPaper-I-in/arphified/Mollusca.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7670" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="1233">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -3243,15 +3243,6 @@
     <t>order</t>
   </si>
   <si>
-    <t>suborder</t>
-  </si>
-  <si>
-    <t>infraorder</t>
-  </si>
-  <si>
-    <t>superfamily</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -3594,9 +3585,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>${iNaturalistTaxonId}</t>
-  </si>
-  <si>
     <t>${gbifOccurrenceID}</t>
   </si>
   <si>
@@ -3639,15 +3627,6 @@
     <t>${order}</t>
   </si>
   <si>
-    <t>${suborder}</t>
-  </si>
-  <si>
-    <t>${infraorder}</t>
-  </si>
-  <si>
-    <t>${superfamily}</t>
-  </si>
-  <si>
     <t>${family}</t>
   </si>
   <si>
@@ -3657,7 +3636,7 @@
     <t>${subgenus}</t>
   </si>
   <si>
-    <t>${summary.Author}</t>
+    <t>${summary.authority}</t>
   </si>
   <si>
     <t>Galiano Island</t>
@@ -26584,970 +26563,946 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:FD2"/>
+  <dimension ref="A1:EZ2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1034</v>
       </c>
       <c r="B1" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C1" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E1" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F1" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="H1" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="I1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="J1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="K1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="L1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="M1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="N1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="O1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="P1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="Q1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="R1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="S1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="T1" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="U1" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="V1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="W1" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="X1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="Y1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Z1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="AA1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="AB1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="AC1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="AD1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AE1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AF1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AG1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AH1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AI1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AJ1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AK1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AL1" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AM1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="AN1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AO1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AP1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AQ1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AR1" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AS1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AT1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AU1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AV1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AW1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="AX1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AY1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="AZ1" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="BA1" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="BB1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="BC1" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="BD1" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="BE1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="BF1" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="BG1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="BH1" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="BI1" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="BJ1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="BK1" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="BL1" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="BM1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="BN1" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="BO1" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="BP1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="BQ1" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="BR1" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="BS1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="BT1" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="BU1" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="BV1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="BW1" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="BX1" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="BY1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="BZ1" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="CA1" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="CB1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="CC1" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="CD1" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="CE1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="CF1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="CG1" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="CH1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="CI1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="CJ1" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="CK1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="CL1" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="CM1" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="CN1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="CO1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="CP1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="CQ1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="CR1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="CS1" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="CT1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="CU1" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="CV1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="CW1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="CX1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="CY1" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="CZ1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="DA1" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="DB1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="DC1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="DD1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="DE1" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="DF1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="DG1" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="DH1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="DI1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="DJ1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="DK1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="DL1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="DM1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="DN1" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="DO1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="DP1" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="DQ1" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="DR1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="DS1" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="DT1" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="DU1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="DV1" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="DW1" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="DX1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="DY1" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="DZ1" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="EA1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="EB1" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="EC1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="ED1" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="EE1" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="EF1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="EG1" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="EH1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="EI1" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="EJ1" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="EK1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="EL1" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="EM1" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="EN1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="EO1" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="EP1" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="EQ1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="ER1" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="ES1" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="ET1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="EU1" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="EV1" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="EW1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="EX1" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="EY1" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="EZ1" t="s">
-        <v>1188</v>
-      </c>
-      <c r="FA1" t="s">
         <v>1189</v>
       </c>
-      <c r="FB1" t="s">
+    </row>
+    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>1190</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="C2" t="s">
         <v>1191</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="2" spans="1:160" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>1193</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="J2" t="s">
         <v>1194</v>
       </c>
-      <c r="D2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>1195</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>1196</v>
       </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>1197</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>1198</v>
       </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>1199</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>1200</v>
       </c>
-      <c r="U2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="AN2" t="s">
         <v>1201</v>
       </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AO2" t="s">
         <v>1202</v>
       </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AP2" t="s">
         <v>1203</v>
       </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AQ2" t="s">
         <v>1204</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AR2" t="s">
         <v>1205</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AS2" t="s">
         <v>1206</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" t="s">
         <v>1207</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>1208</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
         <v>1209</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BL2" t="s">
         <v>1210</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BM2" t="s">
         <v>1211</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP2" t="s">
         <v>1212</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU2" t="s">
         <v>1213</v>
       </c>
-      <c r="AX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG2" t="s">
         <v>1214</v>
       </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN2" t="s">
+      <c r="CH2" t="s">
         <v>1215</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ2" t="s">
         <v>1216</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CY2" t="s">
         <v>1217</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DT2" t="s">
         <v>1218</v>
       </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
+      <c r="DU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DV2" t="s">
         <v>1219</v>
       </c>
-      <c r="BU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
+      <c r="DW2" t="s">
         <v>1220</v>
       </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK2" t="s">
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s">
         <v>1221</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="EA2" t="s">
         <v>1222</v>
       </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="EB2" t="s">
         <v>1223</v>
       </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s">
         <v>1224</v>
       </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DX2" t="s">
+      <c r="EF2" t="s">
         <v>1225</v>
       </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EG2" t="s">
         <v>1226</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ER2" t="s">
         <v>1227</v>
       </c>
-      <c r="EB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
+      <c r="ES2" t="s">
         <v>1228</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="ET2" t="s">
         <v>1229</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EV2" t="s">
         <v>1230</v>
       </c>
-      <c r="EG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>1234</v>
-      </c>
       <c r="EW2" t="s">
-        <v>1235</v>
+        <v>36</v>
       </c>
       <c r="EX2" t="s">
-        <v>1236</v>
+        <v>36</v>
       </c>
       <c r="EY2" t="s">
         <v>36</v>
       </c>
       <c r="EZ2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="FD2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -27567,10 +27522,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1238</v>
+        <v>1231</v>
       </c>
       <c r="C1" t="s">
-        <v>1239</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">

--- a/data/dataPaper-I-in/arphified/Mollusca.xlsx
+++ b/data/dataPaper-I-in/arphified/Mollusca.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="1231">
   <si>
     <t>Taxon_Local_ID</t>
   </si>
@@ -3249,9 +3249,6 @@
     <t>genus</t>
   </si>
   <si>
-    <t>subgenus</t>
-  </si>
-  <si>
     <t>specificEpithet</t>
   </si>
   <si>
@@ -3631,9 +3628,6 @@
   </si>
   <si>
     <t>${genus}</t>
-  </si>
-  <si>
-    <t>${subgenus}</t>
   </si>
   <si>
     <t>${summary.authority}</t>
@@ -26563,10 +26557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ2"/>
+  <dimension ref="A1:EY2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:156" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:155" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1034</v>
       </c>
@@ -27032,466 +27026,463 @@
       <c r="EY1" t="s">
         <v>1188</v>
       </c>
-      <c r="EZ1" t="s">
+    </row>
+    <row r="2" spans="1:155" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="2" spans="1:156" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1190</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>1191</v>
       </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
         <v>1192</v>
       </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>1193</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" t="s">
         <v>1194</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
         <v>1195</v>
       </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
         <v>1196</v>
       </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
         <v>1197</v>
       </c>
-      <c r="V2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF2" t="s">
         <v>1198</v>
       </c>
-      <c r="Y2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="s">
         <v>1199</v>
       </c>
-      <c r="AG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>1200</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>1201</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>1202</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>1203</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>1204</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW2" t="s">
         <v>1205</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI2" t="s">
         <v>1206</v>
       </c>
-      <c r="AT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX2" t="s">
+      <c r="BJ2" t="s">
         <v>1207</v>
       </c>
-      <c r="AY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>1208</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>1209</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO2" t="s">
         <v>1210</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT2" t="s">
         <v>1211</v>
       </c>
-      <c r="BN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP2" t="s">
+      <c r="BU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF2" t="s">
         <v>1212</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU2" t="s">
+      <c r="CG2" t="s">
         <v>1213</v>
       </c>
-      <c r="BV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI2" t="s">
         <v>1214</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CX2" t="s">
         <v>1215</v>
       </c>
-      <c r="CI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DS2" t="s">
         <v>1216</v>
       </c>
-      <c r="CK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="CY2" t="s">
+      <c r="DT2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s">
         <v>1217</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DT2" t="s">
+      <c r="DV2" t="s">
         <v>1218</v>
       </c>
-      <c r="DU2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DV2" t="s">
+      <c r="DW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DY2" t="s">
         <v>1219</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DZ2" t="s">
         <v>1220</v>
       </c>
-      <c r="DX2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>1221</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="ED2" t="s">
         <v>1222</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EE2" t="s">
         <v>1223</v>
       </c>
-      <c r="EC2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>1224</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ2" t="s">
         <v>1225</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="ER2" t="s">
         <v>1226</v>
       </c>
-      <c r="EH2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>36</v>
-      </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>1227</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="ET2" t="s">
+        <v>36</v>
+      </c>
+      <c r="EU2" t="s">
         <v>1228</v>
       </c>
-      <c r="ET2" t="s">
-        <v>1229</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>36</v>
-      </c>
       <c r="EV2" t="s">
-        <v>1230</v>
+        <v>36</v>
       </c>
       <c r="EW2" t="s">
         <v>36</v>
@@ -27500,9 +27491,6 @@
         <v>36</v>
       </c>
       <c r="EY2" t="s">
-        <v>36</v>
-      </c>
-      <c r="EZ2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -27522,10 +27510,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
